--- a/Result/check4.xlsx
+++ b/Result/check4.xlsx
@@ -12045,7 +12045,7 @@
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -25355,7 +25355,7 @@
       </c>
       <c r="AV103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/Result/check4.xlsx
+++ b/Result/check4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3596.868</t>
+          <t>31340.604</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>23.81</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>31341</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -818,17 +818,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-353675718.0</t>
+          <t>-3065436208.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.44</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,157 +920,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13400.728</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>33.35</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>13401</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>2025-04-10</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4725.862</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>19.64</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-342174635.0</t>
+          <t>-201417745.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,22 +1162,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>208.0</t>
+          <t>5785.136</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>99.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>1900.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,67 +1222,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>213</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>5785</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>-83.98</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-93.21</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,27 +1297,27 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>20541.0</t>
+          <t>1768923630.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1327,62 +1327,62 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>30.82</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1392,34 +1392,34 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>635.0</t>
+          <t>3019.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1469,62 +1469,62 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,37 +1534,37 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-236079.0</t>
+          <t>186550.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1579,52 +1579,52 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1634,34 +1634,34 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>6199</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>-10.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11063.0</t>
+          <t>681.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,202 +1671,202 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>-8.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>54.8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-8.33</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>-103894.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>天品</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>11063</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>5985189.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>驊宏資</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>80.64%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>-2.58%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>6670</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>天品-其他-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1876,239 +1876,239 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82717.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>55.7</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>82717</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>2025-04-10</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5876</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18760.376</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>46.85</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>18760</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>933723304.0</t>
+          <t>8954136.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>36.17</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>227766</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,234 +2123,234 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5876</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22443.387</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>22443</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>2025-04-10</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5489</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>155.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>946095869.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-5.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>54.39</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>40.25</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-5.84</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>-35.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>-7606.0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>彩富</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>16.84</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>38.43%</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>11.45%</t>
-        </is>
-      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>232385</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2360,34 +2360,34 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>889.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,142 +2397,142 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-0.40</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-115.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>31.8</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>889</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-116.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-522463.0</t>
+          <t>-3408.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>530.0</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>26.42</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,29 +2607,29 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2224.0</t>
+          <t>5259.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>27.22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2674,67 +2674,67 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2224</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-111.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2749,27 +2749,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-125409.0</t>
+          <t>-416945.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2784,47 +2784,47 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>582.5</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2844,34 +2844,34 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>5227</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>-6.12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>221.251</t>
+          <t>286.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,202 +2881,202 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-2.05</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>43.5</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-2.31</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-2.32</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>36119.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>立凱-KY</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-1.35</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-163.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-20.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-97605631.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>奇偶</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>26.50%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>-14.99%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>69.03</t>
+          <t>49.14</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>電池粉體97.14%、技術授權及技術服務2.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>立凱-KY-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,29 +3091,29 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電動車輛產業 - 鋰電池材料、電動汽車、電動機車、電動自行車** 能源元件 - 原材料</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1690.0</t>
+          <t>1703.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>40.18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3158,67 +3158,67 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>271.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3233,32 +3233,32 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>427650.0</t>
+          <t>219665.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>107.65</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,29 +3333,29 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>643.786</t>
+          <t>7287.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3400,67 +3400,67 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>7287</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,92 +3475,92 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-204173977.0</t>
+          <t>54551.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>58661</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3570,34 +3570,34 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>51.446</t>
+          <t>1449.551</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,17 +3607,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3642,67 +3642,67 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-83.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3717,32 +3717,32 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-11366695.0</t>
+          <t>38556447.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>巨鎧精密-創</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>24.74%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-22.58%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>42.38</t>
+          <t>69.16</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>汽車車燈85.43%、汽車零件14.57% (2022年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>巨鎧精密-創-汽車工業-上市</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,29 +3817,29 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電機機械 - 車用機械傳動設備及零配件** 汽車 - 車燈</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10757.929</t>
+          <t>5860.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>44.59</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>31.05</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3884,67 +3884,67 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>231.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3964,87 +3964,87 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-285894458.0</t>
+          <t>553799.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>35.16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>42.45</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,249 +4059,1217 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1345.189</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>59.9</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-39.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>12524632.0</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>櫻花建</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>46.98%</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>42.67%</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>59556</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>櫻花建-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.021</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-22.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>-1801009.0</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>巨鎧精密-創</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>24.74%</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>-22.58%</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>汽車車燈85.43%、汽車零件14.57% (2022年)</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>巨鎧精密-創-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 車用機械傳動設備及零配件** 汽車 - 車燈</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3839.552</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>3840</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>-40761602.0</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>冠軍</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>24.19%</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>44.38</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>冠軍-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷平</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>1240</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-9.25</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3924.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>782.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-22.10</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-0.83</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>56.1</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>55.9</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-22.10</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>-32.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>-212240.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>茂生農經</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>農業科技業</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>13.83%</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>2311</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>茂生農經-農業科技業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>農業科技業右上</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>** 其他 - 農業科技業</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-0.47</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.774</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>107.5</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>-22.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>-162277.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>46.51</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>2319</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>-1086844.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>興泰</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>565.79</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>34.40%</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>7.29%</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>16893</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>網路通訊業務-銷貨72.28%、飼料24.60%、網路通訊業務-售後服務及整3.12% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>興泰-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>** 食品 - 原物料</t>
         </is>
       </c>
     </row>

--- a/Result/check4.xlsx
+++ b/Result/check4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV20"/>
+  <dimension ref="A1:AV32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31340.604</t>
+          <t>24720.456</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23.81</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,32 +738,32 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>105</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>31341</t>
+          <t>24720</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -818,17 +818,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-3065436208.0</t>
+          <t>564124576.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>30.42</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13400.728</t>
+          <t>9532.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>55.69</t>
+          <t>39.61</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>33.35</t>
+          <t>36.65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,54 +980,54 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13401</t>
+          <t>9533</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>13.35</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>100.0</t>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-201417745.0</t>
+          <t>924494852.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>26.68</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,157 +1162,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6669</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5360.932</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1910.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>5361</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-3.66</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-66.43</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-87.86</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6669</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5785.136</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>99.04</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1900.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5785</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-83.98</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-93.21</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1768923630.0</t>
+          <t>21711895625.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>354954</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6482</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3019.0</t>
+          <t>245.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,107 +1429,107 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>85.35</t>
+          <t>69.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>41.8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>245</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>213.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1539,32 +1539,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>186550.0</t>
+          <t>32731.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>弘煜科</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.39</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>99.59%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>22.74%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>106.38</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>遊戲授權100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>弘煜科-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>16.37</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1634,34 +1634,34 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 文化創意業 - 數位內容產業</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-10.3</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>681.0</t>
+          <t>773.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-8.33</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-5.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>45.95</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,67 +1706,67 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>773</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-8.33</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,32 +1781,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-103894.0</t>
+          <t>167229.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1821,52 +1821,52 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1876,19 +1876,19 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82717.0</t>
+          <t>39989.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,52 +1948,52 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>197</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>82717</t>
+          <t>39989</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>8954136.0</t>
+          <t>2956117.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>36.17</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>24.46</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2130,22 +2130,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6101</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22443.387</t>
+          <t>147.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2190,27 +2190,27 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>22443</t>
+          <t>147</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2220,37 +2220,37 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2260,97 +2260,97 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>946095869.0</t>
+          <t>31199.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>寬魚國際</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>137.5</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.83%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-6.95%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>106.38</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>232385</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>文創98.86%、營業租賃1.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>寬魚國際-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>文化創意業平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2360,34 +2360,34 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>6023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>248.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.91</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2432,27 +2432,27 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>9</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>248</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2462,77 +2462,77 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-115.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-3408.0</t>
+          <t>20767.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>彩富</t>
+          <t>元大期貨</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>金融業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>38.43%</t>
+          <t>25.73%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>-31.88%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>26.42</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4103</t>
+          <t>25982</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,29 +2607,29 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 金融 - 期貨業</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5259.0</t>
+          <t>11446.517</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,202 +2639,202 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>11447</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>5259</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-111.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-416945.0</t>
+          <t>1410579433.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>582.5</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>230926</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2844,34 +2844,34 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5227</t>
+          <t>5701</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-6.12</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>286.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29.25</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2916,107 +2916,107 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-2.31</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-2.32</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>36119.0</t>
+          <t>3044.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>立凱-KY</t>
+          <t>劍湖山</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -3041,42 +3041,42 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>26.50%</t>
+          <t>49.06%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>-14.99%</t>
+          <t>-4.72%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>49.14</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>801</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>電池粉體97.14%、技術授權及技術服務2.86% (2024年)</t>
+          <t>遊樂36.50%、餐飲31.13%、飯店客房22.56%、商品銷售8.53%、其他營業收入1.28% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>立凱-KY-電子零組件業-上櫃</t>
+          <t>劍湖山-觀光事業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,29 +3091,29 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電動車輛產業 - 鋰電池材料、電動汽車、電動機車、電動自行車** 能源元件 - 原材料</t>
+          <t>** 休閒娛樂 - 娛樂服務業、旅館服務業</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1703.0</t>
+          <t>174.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,64 +3123,64 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>-1.47</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>41.5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>-0.20</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>40.18</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>83.9</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1703</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
           <t>0.03</t>
@@ -3188,37 +3188,37 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3228,37 +3228,37 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>219665.0</t>
+          <t>10726.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>107.65</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3328,34 +3328,34 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7287.0</t>
+          <t>768.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3400,67 +3400,67 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>7287</t>
+          <t>768</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-126.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,27 +3475,27 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>54551.0</t>
+          <t>237789.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -3510,47 +3510,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>640.0</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3570,239 +3570,239 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5227</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-2.20</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-2.30</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3356</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1449.551</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-1.03</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>-83.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>38556447.0</t>
+          <t>6781.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>立凱-KY</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>26.50%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>-14.99%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>69.16</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>電池粉體97.14%、技術授權及技術服務2.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>立凱-KY-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,29 +3817,29 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電動車輛產業 - 鋰電池材料、電動汽車、電動機車、電動自行車** 能源元件 - 原材料</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5860.0</t>
+          <t>1186.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>44.59</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>31.05</t>
+          <t>16.55</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3884,72 +3884,72 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>231.0</t>
+          <t>222.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3959,32 +3959,32 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>553799.0</t>
+          <t>35487.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>金耘國際</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -4009,42 +4009,42 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>66.02</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,29 +4059,29 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>4506</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1345.189</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4126,67 +4126,67 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>176</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-39.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4201,92 +4201,92 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>12524632.0</t>
+          <t>34355.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>崇友</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>18.82</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>26.25%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>16.89%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>59556</t>
+          <t>18586</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>電梯,電扶梯及發電機56.39%、勞務43.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>崇友-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>31.17</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,29 +4301,29 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 電機機械 - 機電系統工程</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27.021</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4368,167 +4368,167 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>102</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>16308.0</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>鈺緯</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>-0.68</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-0.82</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-22.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>-1801009.0</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>巨鎧精密-創</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>24.74%</t>
+          <t>29.81%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>-22.58%</t>
+          <t>13.41%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>43.83</t>
+          <t>77.75</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>汽車車燈85.43%、汽車零件14.57% (2022年)</t>
+          <t>醫療用顯示器58.94%、醫療用組件21.73%、工業顯示器8.33%、工業用組件8.21%、零組件2.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>巨鎧精密-創-汽車工業-上市</t>
+          <t>鈺緯-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>17.99</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,29 +4543,29 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 電機機械 - 車用機械傳動設備及零配件** 汽車 - 車燈</t>
+          <t>** 醫療器材 - 顯示器</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3839.552</t>
+          <t>4716.064</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>57.52</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4610,67 +4610,67 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>4716</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4685,32 +4685,32 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>-40761602.0</t>
+          <t>348068330.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>34.19</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>44.38</t>
+          <t>37.24</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>16412</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4780,179 +4780,179 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3546</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1548.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>782.0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>19.93</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>55.9</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>-32.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>-212240.0</t>
+          <t>642708.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>茂生農經</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>農業科技業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4962,57 +4962,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>17.51</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>13.83%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>45.67</t>
+          <t>106.38</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2311</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>茂生農經-農業科技業-上櫃</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>34.98</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5022,254 +5022,3158 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7536.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>7536</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>-20.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>887635.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>哲固</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>19.83%</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>1592</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>哲固-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3356</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1267.633</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-2.02</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-55.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>137222781.0</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>奇偶</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>47.63%</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>15.71%</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>3901</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>奇偶-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>光電業平</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3311</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>104.471</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>27611532.0</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>閎暉</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>47.35</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>10.95%</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>1.13%</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>模具製造 , 橡(塑 )膠製品100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>閎暉-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>通信網路業平</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>** 平面顯示器 - 其他零組件** 石化及塑橡膠 - 塑膠製品、橡膠製品** 其他 - 其他電子產品及電子服務產業** 汽車 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7745.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>486424.0</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>33.49%</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>-25.64%</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>杭特-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2753</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2350.041</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-2.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>181.5</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-2.92</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>57619866.0</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>八方雲集</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>觀光事業</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>33.79%</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>9.20%</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>103.37</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>12096</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>八方雲集-觀光事業-上市</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>觀光事業平</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>53.62</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>** 食品 - 加工食品、餐飲連鎖</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1587.667</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>212679993.0</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>櫻花建</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21.3</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>46.98%</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>42.67%</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>43.94</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>60351</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>櫻花建-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>60.002</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>-0.79</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>-17.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>1280929.0</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>巨鎧精密-創</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>24.74%</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>-22.58%</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>44.18</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>汽車車燈85.43%、汽車零件14.57% (2022年)</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>巨鎧精密-創-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 車用機械傳動設備及零配件** 汽車 - 車燈</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1320.947</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-4.14</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>203337043.0</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>為升</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>31.32%</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>11626</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>為升-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-1.38</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3572.959</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-4.05</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3573</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-4.30</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>-126.0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>39883278.0</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>冠軍</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>33.71</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>24.19%</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>4080</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>冠軍-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷平</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1516</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>66.676</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-7.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>-7.92</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>-0.57</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>7690066.0</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>川飛</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>4.40%</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>-2,130.13%</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>電子零組件95.12%、其他4.88% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>川飛-其他-上市</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>其他右下</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1504</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4563.727</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>-239530633.0</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>東元</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>25.31%</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>104373</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>東元-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>電機機械平</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-4.78</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.387</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-2.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>102.5</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-2.44</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>-31.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1235</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-0.47</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.774</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>-688272.0</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>興泰</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>539.47</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>34.40%</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>7.29%</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>16108</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>網路通訊業務-銷貨72.28%、飼料24.60%、網路通訊業務-售後服務及整3.12% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>興泰-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>食品工業平</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>** 食品 - 原物料</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-22.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>489.332</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>-3.93</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>-4.71</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>-1086844.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>興泰</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>-27959214.0</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>聯華食</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>565.79</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>34.40%</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>7.29%</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>45.05</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>16893</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>網路通訊業務-銷貨72.28%、飼料24.60%、網路通訊業務-售後服務及整3.12% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>興泰-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>35272</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>鮮食產品51.82%、休閒產品48.18% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>聯華食-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
         <is>
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>86.37</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>24.1</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>** 食品 - 原物料</t>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>** 食品 - 冷凍、罐頭、脫水、醃漬食品</t>
         </is>
       </c>
     </row>
